--- a/Shortcuts.xlsx
+++ b/Shortcuts.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tnka-Laptop\OneDrive\Desktop\mMacros\MM-AHK Tamil\autohotkey-text-expander-main\MM-HotkeysHotStrings\InstantAutomate\mm-Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aae804b11b57607c/Desktop/mMacros/MM-AHK Tamil/autohotkey-text-expander-main/MM-HotkeysHotStrings/InstantAutomate/mm-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF67FBB7-26B7-4C75-AEE2-356AFD9DA254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{30EBEE5B-A9F3-4B13-BE78-FDB1F37636C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{931F5C9F-D8FB-4C7B-8F57-093A2A7F101E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{439E5E02-BED7-437C-AD5E-26BAB734E922}"/>
   </bookViews>
   <sheets>
     <sheet name="vt-vk-mm-ht-hotkeys" sheetId="2" r:id="rId1"/>
     <sheet name="mm-Reference" sheetId="3" r:id="rId2"/>
+    <sheet name="Sample Format" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="97">
   <si>
     <t>Type</t>
   </si>
@@ -44,9 +45,6 @@
     <t>SelectType</t>
   </si>
   <si>
-    <t>&lt;aa</t>
-  </si>
-  <si>
     <t>*abc</t>
   </si>
   <si>
@@ -116,143 +114,209 @@
     <t>Pressed Control Shift and A - ^+a</t>
   </si>
   <si>
-    <t>ListHotkeys Active Hotstrings</t>
-  </si>
-  <si>
-    <t>^!e - Ctrl Alt E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">^!h - Ctrl Alt H
+    <t>Reload The Script</t>
+  </si>
+  <si>
+    <t>Script Reserved Hot Keys and Functions</t>
+  </si>
+  <si>
+    <t>{Tab}</t>
+  </si>
+  <si>
+    <t>{Up}</t>
+  </si>
+  <si>
+    <t>{Down}</t>
+  </si>
+  <si>
+    <t>{Right}</t>
+  </si>
+  <si>
+    <t>{Left}</t>
+  </si>
+  <si>
+    <t>{Enter}</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>DEXXX</t>
+  </si>
+  <si>
+    <t>Name : {Enter} Phone: {Enter} Country :</t>
+  </si>
+  <si>
+    <t>Name : {Tab} Phone: {Tab} Country :</t>
+  </si>
+  <si>
+    <t>For Selecting Dropdown Menus and Etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format Cell As Text For Entering Shift Key (+) </t>
+  </si>
+  <si>
+    <t>^!f</t>
+  </si>
+  <si>
+    <t>Run "C:\Users\Tnka-Laptop\Downloads\convertcase-net.txt"</t>
+  </si>
+  <si>
+    <t>File Open</t>
+  </si>
+  <si>
+    <t>Folder Open</t>
+  </si>
+  <si>
+    <t>^!g</t>
+  </si>
+  <si>
+    <t>Run "C:\Users\Tnka-Laptop\Downloads\"</t>
+  </si>
+  <si>
+    <t>Your Actions Here…</t>
+  </si>
+  <si>
+    <t>Reference Format For Open File and Folder</t>
+  </si>
+  <si>
+    <t>File Path Format</t>
+  </si>
+  <si>
+    <t>Run "Replace Your Full File and Folder Path Here"</t>
+  </si>
+  <si>
+    <t>For File Open</t>
+  </si>
+  <si>
+    <t>For Folder Open</t>
+  </si>
+  <si>
+    <t>Shortcut Key</t>
+  </si>
+  <si>
+    <t>Open Shortcut excel File</t>
+  </si>
+  <si>
+    <t>Abc 1234567893</t>
+  </si>
+  <si>
+    <t>Abc 7890</t>
+  </si>
+  <si>
+    <t>Greetings</t>
+  </si>
+  <si>
+    <t>&lt;DIV&gt;{Enter}{Enter}&lt;/DIV&gt;{UP}</t>
+  </si>
+  <si>
+    <t>div`</t>
+  </si>
+  <si>
+    <t>^!r  - Ctrl + Alt + R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^!h - Ctrl + Alt + H
 </t>
   </si>
   <si>
-    <t>^!r  - Ctrl Alt R</t>
-  </si>
-  <si>
-    <t>Reload The Script</t>
-  </si>
-  <si>
-    <t>Script Reserved Hot Keys and Functions</t>
-  </si>
-  <si>
-    <t>{Tab}</t>
-  </si>
-  <si>
-    <t>{Up}</t>
-  </si>
-  <si>
-    <t>{Down}</t>
-  </si>
-  <si>
-    <t>{Right}</t>
-  </si>
-  <si>
-    <t>{Left}</t>
-  </si>
-  <si>
-    <t>{Enter}</t>
-  </si>
-  <si>
-    <t>Command</t>
-  </si>
-  <si>
-    <t>Enter</t>
-  </si>
-  <si>
-    <t>Tab</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>Down</t>
-  </si>
-  <si>
-    <t>Left</t>
-  </si>
-  <si>
-    <t>Right</t>
-  </si>
-  <si>
-    <t>DEXXX</t>
+    <t>^!e - Ctrl + Alt + E</t>
+  </si>
+  <si>
+    <t>Format :
+DE500 Enter Your Delayed Typing Text Here</t>
+  </si>
+  <si>
+    <t>List Out Number of Hotkeys and Active Hotstrings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--d	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--t 	</t>
+  </si>
+  <si>
+    <t>Instantly adds current time in HH:MM:SS format</t>
+  </si>
+  <si>
+    <t>Instantly adds current date in DD-MM-YYYY format</t>
+  </si>
+  <si>
+    <t>Run</t>
   </si>
   <si>
     <t>XXXX Is your Time in Milliseconds
-DE500 - 0.5 Second Delay Between Each Characters
-DE1000 - 1  Second Delay Between Each Characters</t>
-  </si>
-  <si>
-    <t>Format :
-DE500 Enter Your Delayed Text Here</t>
-  </si>
-  <si>
-    <t>Name : {Enter} Phone: {Enter} Country :</t>
-  </si>
-  <si>
-    <t>Name : {Tab} Phone: {Tab} Country :</t>
-  </si>
-  <si>
-    <t>For Selecting Dropdown Menus and Etc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Format Cell As Text For Entering Shift Key (+) </t>
-  </si>
-  <si>
-    <t>^!f</t>
-  </si>
-  <si>
-    <t>Run "C:\Users\Tnka-Laptop\Downloads\convertcase-net.txt"</t>
-  </si>
-  <si>
-    <t>File Open</t>
-  </si>
-  <si>
-    <t>Folder Open</t>
-  </si>
-  <si>
-    <t>^!g</t>
-  </si>
-  <si>
-    <t>Run "C:\Users\Tnka-Laptop\Downloads\"</t>
-  </si>
-  <si>
-    <t>Your Actions Here…</t>
-  </si>
-  <si>
-    <t>Reference Format For Open File and Folder</t>
-  </si>
-  <si>
-    <t>File Path Format</t>
-  </si>
-  <si>
-    <t>Run "Replace Your Full File and Folder Path Here"</t>
-  </si>
-  <si>
-    <t>For File Open</t>
-  </si>
-  <si>
-    <t>For Folder Open</t>
-  </si>
-  <si>
-    <t>Shortcut Key</t>
-  </si>
-  <si>
-    <t>Open Shortcut excel File</t>
-  </si>
-  <si>
-    <t>Abc 1234567893</t>
-  </si>
-  <si>
-    <t>Abc 7890</t>
-  </si>
-  <si>
-    <t>ī</t>
-  </si>
-  <si>
-    <t>DE500 abcd</t>
-  </si>
-  <si>
-    <t>Greetings</t>
+DE500 - 0.5 Second Delay Between Each Characters Typing
+DE1000 - 1  Second Delay Between Each Characters Typing</t>
+  </si>
+  <si>
+    <t>[Test</t>
+  </si>
+  <si>
+    <t>wel</t>
+  </si>
+  <si>
+    <t>DE500 Welcome to the Quick Typer! We're so excited to have you here</t>
+  </si>
+  <si>
+    <t>Run Command</t>
+  </si>
+  <si>
+    <t>^p</t>
+  </si>
+  <si>
+    <t>Form Fill</t>
+  </si>
+  <si>
+    <t>^f</t>
+  </si>
+  <si>
+    <t>DE100 abc@abc.com{TAB}Welcome to Magic Quick typer{TAB}Thanks For purchasing !!!{ENTER}Regards,{ENTER}Instant Automate</t>
+  </si>
+  <si>
+    <t>Delay Send</t>
+  </si>
+  <si>
+    <t>Form Filling</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>DE300 Good{Enter}Morning {Tab} Have A Nice Day  !!!!</t>
+  </si>
+  <si>
+    <t>;wel</t>
+  </si>
+  <si>
+    <t>DE70 Your order has been processed successfully. You will receive tracking details within 24 hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abc 1234567893 </t>
+  </si>
+  <si>
+    <t>tt</t>
+  </si>
+  <si>
+    <t>&lt;DIV&gt;{Enter}{Enter}&lt;/DIV&gt;{UP} {vt..{ENter}Testing {ENter} (){}[]`\|!@#$%^&amp;*&lt;END&gt;}</t>
   </si>
 </sst>
 </file>
@@ -851,7 +915,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -896,6 +960,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="10" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="21" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1267,9 +1332,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFFC69B-C816-4DF4-9681-AB4711F1EEF7}">
   <dimension ref="A1:D194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1289,10 +1354,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1300,13 +1365,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1314,13 +1379,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1328,13 +1393,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1342,13 +1407,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1356,13 +1421,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1370,13 +1435,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1384,13 +1449,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1398,13 +1463,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1412,13 +1477,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1426,13 +1491,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1440,13 +1505,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1454,13 +1519,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1468,118 +1533,150 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
@@ -2563,17 +2660,20 @@
       <formula1>"Hotstring,Hotkey,SelectType"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D17" r:id="rId1" display="abc@abc.com{TAB}Welcome to Magic Quick typer{TAB}Thanks For purchasing !!!{ENTER}Regards,{ENTER}Instant Automate" xr:uid="{4789BA81-697B-4904-9524-4468A1BD0D8C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17085DFC-028F-4BD4-BF19-B51233715CA1}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,10 +2688,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D1" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>2</v>
@@ -2606,10 +2706,10 @@
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="37.5" x14ac:dyDescent="0.3">
@@ -2621,10 +2721,10 @@
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -2636,143 +2736,438 @@
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="D6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>52</v>
+      <c r="E5" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="93.75" x14ac:dyDescent="0.25">
       <c r="D8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>54</v>
+      <c r="E8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D9" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D10" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D12" s="12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F12" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D13" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D15:F15"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4 H2:H4" xr:uid="{092F9B17-ADD3-4F7F-BB58-1782796FEF50}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A6 H2:H6" xr:uid="{092F9B17-ADD3-4F7F-BB58-1782796FEF50}">
       <formula1>"Hotstring,Hotkey,SelectType"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F5F418-2CF8-4B56-9136-5492A1709B37}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="158.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A17" xr:uid="{95F5975E-FCBA-4CCD-96C5-FA1B5577DDB2}">
+      <formula1>"Hotstring,Hotkey,SelectType"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D17" r:id="rId1" display="abc@abc.com{TAB}Welcome to Magic Quick typer{TAB}Thanks For purchasing !!!{ENTER}Regards,{ENTER}Instant Automate" xr:uid="{0CCD3EFD-B7D7-40AD-A149-11B08F037D2B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>